--- a/健康保険法.xlsx
+++ b/健康保険法.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
   <si>
     <t>Ｂ療養費を受ける権利は、療養に要した費用を支払った日から５年を経過したときは、時効によって消滅する。</t>
   </si>
@@ -79,21 +79,6 @@
   </si>
   <si>
     <t>オ健康保険組合は、毎年度終了後６か月以内に、厚生労働省令に定めるところにより、事業及び決算に関する報告書を作成し、厚生労働大臣に提出しなければならない。</t>
-  </si>
-  <si>
-    <t>Ａ（アとオ）</t>
-  </si>
-  <si>
-    <t>Ｂ（イとエ）</t>
-  </si>
-  <si>
-    <t>Ｃ（イとウ）</t>
-  </si>
-  <si>
-    <t>Ｄ（ウとエ）</t>
-  </si>
-  <si>
-    <t>Ｅ（ウとオ）</t>
   </si>
   <si>
     <t>〔問５〕保険料等に関する次の記述のうち、誤っているのはどれか。</t>
@@ -225,6 +210,10 @@
   </si>
   <si>
     <t>イ健康保険組合は、毎年度、事業計画及び予算を作成し、当該年度の開始前に、厚生労働大臣の認可を受けなければならない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -588,11 +577,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -602,18 +589,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -621,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -632,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -643,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -654,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -670,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -681,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -692,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -703,10 +690,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -714,10 +701,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -730,10 +717,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -741,10 +728,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -752,10 +739,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -763,10 +750,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -774,10 +761,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -790,15 +777,21 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -806,7 +799,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -814,7 +810,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -822,392 +821,370 @@
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>64</v>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>64</v>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>64</v>
+      <c r="B53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>64</v>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>64</v>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>64</v>
+      <c r="B62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>64</v>
+      <c r="B69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>64</v>
+      <c r="B70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>64</v>
+      <c r="B77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>64</v>
+      <c r="B78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
